--- a/dataset/score/maathru.xlsx
+++ b/dataset/score/maathru.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J4" t="n">
         <v>0.75</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -865,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K9" t="n">
         <v>0.75</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J12" t="n">
         <v>0.75</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J18" t="n">
         <v>0.5</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
         <v>0.75</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J22" t="n">
         <v>0.75</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K24" t="n">
         <v>0.75</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J26" t="n">
         <v>0.75</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J67" t="n">
         <v>0.75</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3841,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J71" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0.75</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4033,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J75" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4273,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4417,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J83" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J94" t="n">
         <v>0.75</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5041,10 +5041,10 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J96" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5185,10 +5185,10 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J99" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5281,10 +5281,10 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J101" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>

--- a/dataset/score/maathru.xlsx
+++ b/dataset/score/maathru.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0.75</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
         <v>0.75</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K18" t="n">
         <v>0.75</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0.75</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4036,7 +4036,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4420,7 +4420,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
